--- a/AAMBFS Credly Badges_January 2026 first 100 row.xlsx
+++ b/AAMBFS Credly Badges_January 2026 first 100 row.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\OneDrive\Desktop\automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68CAAA50-01DC-411D-A341-5F56DFA646F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4392B10A-4756-45AA-B827-D8B00C6D9B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="3075" windowWidth="23235" windowHeight="11295" xr2:uid="{9BEE289E-43D1-4FD0-B5E4-EAE2084472FD}"/>
+    <workbookView xWindow="345" yWindow="2730" windowWidth="23235" windowHeight="11295" xr2:uid="{9BEE289E-43D1-4FD0-B5E4-EAE2084472FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="203">
   <si>
     <t>First Name</t>
   </si>
@@ -645,12 +645,6 @@
   </si>
   <si>
     <t>ahmedmr824@gmail.com</t>
-  </si>
-  <si>
-    <t>اشرف محمد متولى شرارة</t>
-  </si>
-  <si>
-    <t>ashrafsharara@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1053,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A100" sqref="A100:XFD100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2754,21 +2748,11 @@
       </c>
     </row>
     <row r="100" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2870,7 +2854,6 @@
     <hyperlink ref="E97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
     <hyperlink ref="E98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
     <hyperlink ref="E99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="E100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
